--- a/data/player-stats-orig.xlsx
+++ b/data/player-stats-orig.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11b2a9a23286e0ef/Documents/MS Data Analysis and Visualization/Capstone/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclai\Documents\Github\baseball-AA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{B9FDA817-64D3-4B28-9794-01A89B857481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B78997A-6FD1-4E17-9C15-D402802A3395}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{928237CF-62B3-4C10-8FE9-AFA2CFCBC8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="player-stats" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,32 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>RBI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="43">
   <si>
     <t>SB</t>
   </si>
   <si>
-    <t>AVG</t>
-  </si>
-  <si>
     <t>Josh Gibson</t>
   </si>
   <si>
@@ -63,9 +42,6 @@
     <t>Buck O'Neil</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
     <t>FB</t>
   </si>
   <si>
@@ -78,9 +54,6 @@
     <t>Multiple</t>
   </si>
   <si>
-    <t>HOF</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -120,9 +93,6 @@
     <t>Jose Mendez</t>
   </si>
   <si>
-    <t>Played-in-MLB</t>
-  </si>
-  <si>
     <t>Martin Dihigo</t>
   </si>
   <si>
@@ -151,6 +121,39 @@
   </si>
   <si>
     <t>Turkey Stearnes</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>rbi</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>hof</t>
+  </si>
+  <si>
+    <t>played-in-mlb</t>
   </si>
 </sst>
 </file>
@@ -471,57 +474,57 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" customWidth="1"/>
+    <col min="11" max="11" width="16.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
       <c r="C2">
         <v>3780</v>
@@ -545,18 +548,18 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2332</v>
@@ -580,18 +583,18 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1299</v>
@@ -615,18 +618,18 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2201</v>
@@ -650,18 +653,18 @@
         <v>0.33600000000000002</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2841</v>
@@ -685,18 +688,18 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2438</v>
@@ -720,18 +723,18 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>5031</v>
@@ -755,18 +758,18 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>3264</v>
@@ -790,18 +793,18 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>137</v>
@@ -825,18 +828,18 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>540</v>
@@ -860,18 +863,18 @@
         <v>0.309</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>1135</v>
@@ -895,18 +898,18 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1166</v>
@@ -930,18 +933,18 @@
         <v>0.23200000000000001</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>2841</v>
@@ -965,18 +968,18 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1756</v>
@@ -1000,18 +1003,18 @@
         <v>0.311</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>1048</v>
@@ -1035,18 +1038,18 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>3497</v>
@@ -1070,18 +1073,18 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>5117</v>
@@ -1105,18 +1108,18 @@
         <v>0.35</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>2564</v>
@@ -1140,18 +1143,18 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>932</v>
@@ -1175,18 +1178,18 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>1469</v>
@@ -1210,18 +1213,18 @@
         <v>0.26900000000000002</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>4016</v>
@@ -1245,10 +1248,10 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
